--- a/result/Question_EN_Response_Comparison.xlsx
+++ b/result/Question_EN_Response_Comparison.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adamlyu/PycharmProjects/AzureAISearchDemo/result/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72445268-0119-D94C-9305-48C53B1C332F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28CDE49C-6890-F54A-B7DD-C4D61ACF58BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main Questions" sheetId="1" r:id="rId1"/>
     <sheet name="Test Questions" sheetId="2" r:id="rId2"/>
+    <sheet name="Outside Questions" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1080" uniqueCount="263">
   <si>
     <t>Question</t>
   </si>
@@ -783,6 +784,42 @@
   </si>
   <si>
     <t xml:space="preserve">The uoWellness app is a one-stop solution for health and wellness designed by students, for students, and tailored to university life. The app helps make your wellness journey simpler and engaging. </t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>What is the best restaurant near the campus?</t>
+  </si>
+  <si>
+    <t>How do I rent a bike in Ottawa?</t>
+  </si>
+  <si>
+    <t>What is the weather today?</t>
+  </si>
+  <si>
+    <t>Where can I find the nearest library?</t>
+  </si>
+  <si>
+    <t>Are there any hiking trails close to the campus?</t>
+  </si>
+  <si>
+    <t>How do I apply for a parking permit in Ottawa?</t>
+  </si>
+  <si>
+    <t>What are the opening hours of the nearest grocery store?</t>
+  </si>
+  <si>
+    <t>How do I join a local sports team?</t>
+  </si>
+  <si>
+    <t>Where can I buy public transport tickets in Ottawa?</t>
+  </si>
+  <si>
+    <t>What is the best way to get to downtown Ottawa from campus?</t>
+  </si>
+  <si>
+    <t>No answer found</t>
   </si>
 </sst>
 </file>
@@ -841,16 +878,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1158,7 +1189,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F115"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A110" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -3471,1937 +3502,2068 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="F61" sqref="F61:F66"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D3">
+        <v>0.93</v>
+      </c>
+      <c r="E3" t="s">
+        <v>139</v>
+      </c>
+      <c r="F3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D4">
+        <v>0.92</v>
+      </c>
+      <c r="E4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5">
+        <v>0.8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>139</v>
+      </c>
+      <c r="F5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>163</v>
+      </c>
+      <c r="B6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D6">
+        <v>0.92</v>
+      </c>
+      <c r="E6" t="s">
+        <v>139</v>
+      </c>
+      <c r="F6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>164</v>
+      </c>
+      <c r="B7" t="s">
+        <v>246</v>
+      </c>
+      <c r="C7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D7">
+        <v>0.93</v>
+      </c>
+      <c r="E7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F7" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>165</v>
+      </c>
+      <c r="B8" t="s">
+        <v>246</v>
+      </c>
+      <c r="C8" t="s">
+        <v>121</v>
+      </c>
+      <c r="D8">
+        <v>0.74</v>
+      </c>
+      <c r="E8" t="s">
+        <v>140</v>
+      </c>
+      <c r="F8" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>166</v>
+      </c>
+      <c r="B9" t="s">
+        <v>246</v>
+      </c>
+      <c r="C9" t="s">
+        <v>121</v>
+      </c>
+      <c r="D9">
+        <v>0.93</v>
+      </c>
+      <c r="E9" t="s">
+        <v>140</v>
+      </c>
+      <c r="F9" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>167</v>
+      </c>
+      <c r="B10" t="s">
+        <v>246</v>
+      </c>
+      <c r="C10" t="s">
+        <v>121</v>
+      </c>
+      <c r="D10">
+        <v>0.93</v>
+      </c>
+      <c r="E10" t="s">
+        <v>140</v>
+      </c>
+      <c r="F10" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>168</v>
+      </c>
+      <c r="B11" t="s">
+        <v>246</v>
+      </c>
+      <c r="C11" t="s">
+        <v>121</v>
+      </c>
+      <c r="D11">
+        <v>0.93</v>
+      </c>
+      <c r="E11" t="s">
+        <v>140</v>
+      </c>
+      <c r="F11" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>169</v>
+      </c>
+      <c r="B12" t="s">
+        <v>122</v>
+      </c>
+      <c r="C12" t="s">
+        <v>122</v>
+      </c>
+      <c r="D12">
+        <v>0.92</v>
+      </c>
+      <c r="E12" t="s">
+        <v>141</v>
+      </c>
+      <c r="F12" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>170</v>
+      </c>
+      <c r="B13" t="s">
+        <v>122</v>
+      </c>
+      <c r="C13" t="s">
+        <v>122</v>
+      </c>
+      <c r="D13">
+        <v>0.94</v>
+      </c>
+      <c r="E13" t="s">
+        <v>141</v>
+      </c>
+      <c r="F13" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>171</v>
+      </c>
+      <c r="B14" t="s">
+        <v>122</v>
+      </c>
+      <c r="C14" t="s">
+        <v>122</v>
+      </c>
+      <c r="D14">
+        <v>0.93</v>
+      </c>
+      <c r="E14" t="s">
+        <v>141</v>
+      </c>
+      <c r="F14" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>172</v>
+      </c>
+      <c r="B15" t="s">
+        <v>122</v>
+      </c>
+      <c r="C15" t="s">
+        <v>122</v>
+      </c>
+      <c r="D15">
+        <v>0.65</v>
+      </c>
+      <c r="E15" t="s">
+        <v>141</v>
+      </c>
+      <c r="F15" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>173</v>
+      </c>
+      <c r="B16" t="s">
+        <v>122</v>
+      </c>
+      <c r="C16" t="s">
+        <v>122</v>
+      </c>
+      <c r="D16">
+        <v>0.92</v>
+      </c>
+      <c r="E16" t="s">
+        <v>141</v>
+      </c>
+      <c r="F16" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>174</v>
+      </c>
+      <c r="B17" t="s">
+        <v>123</v>
+      </c>
+      <c r="C17" t="s">
+        <v>123</v>
+      </c>
+      <c r="D17">
+        <v>0.92</v>
+      </c>
+      <c r="E17" t="s">
+        <v>142</v>
+      </c>
+      <c r="F17" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>175</v>
+      </c>
+      <c r="B18" t="s">
+        <v>123</v>
+      </c>
+      <c r="C18" t="s">
+        <v>123</v>
+      </c>
+      <c r="D18">
+        <v>0.9</v>
+      </c>
+      <c r="E18" t="s">
+        <v>142</v>
+      </c>
+      <c r="F18" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>176</v>
+      </c>
+      <c r="B19" t="s">
+        <v>123</v>
+      </c>
+      <c r="C19" t="s">
+        <v>123</v>
+      </c>
+      <c r="D19">
+        <v>0.82</v>
+      </c>
+      <c r="E19" t="s">
+        <v>142</v>
+      </c>
+      <c r="F19" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>177</v>
+      </c>
+      <c r="B20" t="s">
+        <v>123</v>
+      </c>
+      <c r="C20" t="s">
+        <v>123</v>
+      </c>
+      <c r="D20">
+        <v>0.92</v>
+      </c>
+      <c r="E20" t="s">
+        <v>142</v>
+      </c>
+      <c r="F20" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>178</v>
+      </c>
+      <c r="B21" t="s">
+        <v>123</v>
+      </c>
+      <c r="C21" t="s">
+        <v>123</v>
+      </c>
+      <c r="D21">
+        <v>0.78</v>
+      </c>
+      <c r="E21" t="s">
+        <v>142</v>
+      </c>
+      <c r="F21" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>179</v>
+      </c>
+      <c r="B22" t="s">
+        <v>124</v>
+      </c>
+      <c r="C22" t="s">
+        <v>124</v>
+      </c>
+      <c r="D22">
+        <v>0.93</v>
+      </c>
+      <c r="E22" t="s">
+        <v>143</v>
+      </c>
+      <c r="F22" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>180</v>
+      </c>
+      <c r="B23" t="s">
+        <v>124</v>
+      </c>
+      <c r="C23" t="s">
+        <v>124</v>
+      </c>
+      <c r="D23">
+        <v>0.94</v>
+      </c>
+      <c r="E23" t="s">
+        <v>143</v>
+      </c>
+      <c r="F23" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>181</v>
+      </c>
+      <c r="B24" t="s">
+        <v>124</v>
+      </c>
+      <c r="C24" t="s">
+        <v>124</v>
+      </c>
+      <c r="D24">
+        <v>0.94</v>
+      </c>
+      <c r="E24" t="s">
+        <v>143</v>
+      </c>
+      <c r="F24" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>182</v>
+      </c>
+      <c r="B25" t="s">
+        <v>124</v>
+      </c>
+      <c r="C25" t="s">
+        <v>124</v>
+      </c>
+      <c r="D25">
+        <v>0.92</v>
+      </c>
+      <c r="E25" t="s">
+        <v>143</v>
+      </c>
+      <c r="F25" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>183</v>
+      </c>
+      <c r="B26" t="s">
+        <v>124</v>
+      </c>
+      <c r="C26" t="s">
+        <v>124</v>
+      </c>
+      <c r="D26">
+        <v>0.78</v>
+      </c>
+      <c r="E26" t="s">
+        <v>143</v>
+      </c>
+      <c r="F26" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" t="s">
+        <v>247</v>
+      </c>
+      <c r="C27" t="s">
+        <v>125</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27" t="s">
+        <v>144</v>
+      </c>
+      <c r="F27" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>184</v>
+      </c>
+      <c r="B28" t="s">
+        <v>247</v>
+      </c>
+      <c r="C28" t="s">
+        <v>125</v>
+      </c>
+      <c r="D28">
+        <v>0.93</v>
+      </c>
+      <c r="E28" t="s">
+        <v>144</v>
+      </c>
+      <c r="F28" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>185</v>
+      </c>
+      <c r="B29" t="s">
+        <v>247</v>
+      </c>
+      <c r="C29" t="s">
+        <v>125</v>
+      </c>
+      <c r="D29">
+        <v>0.94</v>
+      </c>
+      <c r="E29" t="s">
+        <v>144</v>
+      </c>
+      <c r="F29" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>186</v>
+      </c>
+      <c r="B30" t="s">
+        <v>247</v>
+      </c>
+      <c r="C30" t="s">
+        <v>125</v>
+      </c>
+      <c r="D30">
+        <v>0.93</v>
+      </c>
+      <c r="E30" t="s">
+        <v>144</v>
+      </c>
+      <c r="F30" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>187</v>
+      </c>
+      <c r="B31" t="s">
+        <v>247</v>
+      </c>
+      <c r="C31" t="s">
+        <v>125</v>
+      </c>
+      <c r="D31">
+        <v>0.93</v>
+      </c>
+      <c r="E31" t="s">
+        <v>144</v>
+      </c>
+      <c r="F31" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>188</v>
+      </c>
+      <c r="B32" t="s">
+        <v>126</v>
+      </c>
+      <c r="C32" t="s">
+        <v>126</v>
+      </c>
+      <c r="D32">
+        <v>0.94</v>
+      </c>
+      <c r="E32" t="s">
+        <v>145</v>
+      </c>
+      <c r="F32" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>189</v>
+      </c>
+      <c r="B33" t="s">
+        <v>126</v>
+      </c>
+      <c r="C33" t="s">
+        <v>126</v>
+      </c>
+      <c r="D33">
+        <v>0.93</v>
+      </c>
+      <c r="E33" t="s">
+        <v>145</v>
+      </c>
+      <c r="F33" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>190</v>
+      </c>
+      <c r="B34" t="s">
+        <v>126</v>
+      </c>
+      <c r="C34" t="s">
+        <v>125</v>
+      </c>
+      <c r="D34">
+        <v>0.65</v>
+      </c>
+      <c r="E34" t="s">
+        <v>144</v>
+      </c>
+      <c r="F34" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>191</v>
+      </c>
+      <c r="B35" t="s">
+        <v>126</v>
+      </c>
+      <c r="C35" t="s">
+        <v>125</v>
+      </c>
+      <c r="D35">
+        <v>0.83</v>
+      </c>
+      <c r="E35" t="s">
+        <v>144</v>
+      </c>
+      <c r="F35" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>192</v>
+      </c>
+      <c r="B36" t="s">
+        <v>126</v>
+      </c>
+      <c r="C36" t="s">
+        <v>126</v>
+      </c>
+      <c r="D36">
+        <v>0.93</v>
+      </c>
+      <c r="E36" t="s">
+        <v>145</v>
+      </c>
+      <c r="F36" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>193</v>
+      </c>
+      <c r="B37" t="s">
+        <v>248</v>
+      </c>
+      <c r="C37" t="s">
+        <v>127</v>
+      </c>
+      <c r="D37">
+        <v>0.94</v>
+      </c>
+      <c r="E37" t="s">
+        <v>146</v>
+      </c>
+      <c r="F37" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>194</v>
+      </c>
+      <c r="B38" t="s">
+        <v>248</v>
+      </c>
+      <c r="C38" t="s">
+        <v>127</v>
+      </c>
+      <c r="D38">
+        <v>0.91</v>
+      </c>
+      <c r="E38" t="s">
+        <v>146</v>
+      </c>
+      <c r="F38" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>195</v>
+      </c>
+      <c r="B39" t="s">
+        <v>248</v>
+      </c>
+      <c r="C39" t="s">
+        <v>127</v>
+      </c>
+      <c r="D39">
+        <v>0.93</v>
+      </c>
+      <c r="E39" t="s">
+        <v>146</v>
+      </c>
+      <c r="F39" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>196</v>
+      </c>
+      <c r="B40" t="s">
+        <v>248</v>
+      </c>
+      <c r="C40" t="s">
+        <v>127</v>
+      </c>
+      <c r="D40">
+        <v>0.92</v>
+      </c>
+      <c r="E40" t="s">
+        <v>146</v>
+      </c>
+      <c r="F40" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>197</v>
+      </c>
+      <c r="B41" t="s">
+        <v>248</v>
+      </c>
+      <c r="C41" t="s">
+        <v>127</v>
+      </c>
+      <c r="D41">
+        <v>0.93</v>
+      </c>
+      <c r="E41" t="s">
+        <v>146</v>
+      </c>
+      <c r="F41" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>198</v>
+      </c>
+      <c r="B42" t="s">
+        <v>128</v>
+      </c>
+      <c r="C42" t="s">
+        <v>128</v>
+      </c>
+      <c r="D42">
+        <v>0.93</v>
+      </c>
+      <c r="E42" t="s">
+        <v>147</v>
+      </c>
+      <c r="F42" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>199</v>
+      </c>
+      <c r="B43" t="s">
+        <v>128</v>
+      </c>
+      <c r="C43" t="s">
+        <v>128</v>
+      </c>
+      <c r="D43">
+        <v>0.92</v>
+      </c>
+      <c r="E43" t="s">
+        <v>147</v>
+      </c>
+      <c r="F43" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>200</v>
+      </c>
+      <c r="B44" t="s">
+        <v>128</v>
+      </c>
+      <c r="C44" t="s">
+        <v>128</v>
+      </c>
+      <c r="D44">
+        <v>0.93</v>
+      </c>
+      <c r="E44" t="s">
+        <v>147</v>
+      </c>
+      <c r="F44" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>201</v>
+      </c>
+      <c r="B45" t="s">
+        <v>128</v>
+      </c>
+      <c r="C45" t="s">
+        <v>128</v>
+      </c>
+      <c r="D45">
+        <v>0.69</v>
+      </c>
+      <c r="E45" t="s">
+        <v>147</v>
+      </c>
+      <c r="F45" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>202</v>
+      </c>
+      <c r="B46" t="s">
+        <v>128</v>
+      </c>
+      <c r="C46" t="s">
+        <v>128</v>
+      </c>
+      <c r="D46">
+        <v>0.92</v>
+      </c>
+      <c r="E46" t="s">
+        <v>147</v>
+      </c>
+      <c r="F46" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>203</v>
+      </c>
+      <c r="B47" t="s">
+        <v>129</v>
+      </c>
+      <c r="C47" t="s">
+        <v>129</v>
+      </c>
+      <c r="D47">
+        <v>0.92</v>
+      </c>
+      <c r="E47" t="s">
+        <v>148</v>
+      </c>
+      <c r="F47" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>204</v>
+      </c>
+      <c r="B48" t="s">
+        <v>129</v>
+      </c>
+      <c r="C48" t="s">
+        <v>129</v>
+      </c>
+      <c r="D48">
+        <v>0.81</v>
+      </c>
+      <c r="E48" t="s">
+        <v>148</v>
+      </c>
+      <c r="F48" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>205</v>
+      </c>
+      <c r="B49" t="s">
+        <v>129</v>
+      </c>
+      <c r="C49" t="s">
+        <v>129</v>
+      </c>
+      <c r="D49">
+        <v>0.93</v>
+      </c>
+      <c r="E49" t="s">
+        <v>148</v>
+      </c>
+      <c r="F49" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>206</v>
+      </c>
+      <c r="B50" t="s">
+        <v>129</v>
+      </c>
+      <c r="C50" t="s">
+        <v>129</v>
+      </c>
+      <c r="D50">
+        <v>0.92</v>
+      </c>
+      <c r="E50" t="s">
+        <v>148</v>
+      </c>
+      <c r="F50" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>207</v>
+      </c>
+      <c r="B51" t="s">
+        <v>129</v>
+      </c>
+      <c r="C51" t="s">
+        <v>129</v>
+      </c>
+      <c r="D51">
+        <v>0.91</v>
+      </c>
+      <c r="E51" t="s">
+        <v>148</v>
+      </c>
+      <c r="F51" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>208</v>
+      </c>
+      <c r="B52" t="s">
+        <v>249</v>
+      </c>
+      <c r="C52" t="s">
+        <v>130</v>
+      </c>
+      <c r="D52">
+        <v>0.93</v>
+      </c>
+      <c r="E52" t="s">
+        <v>149</v>
+      </c>
+      <c r="F52" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>209</v>
+      </c>
+      <c r="B53" t="s">
+        <v>249</v>
+      </c>
+      <c r="C53" t="s">
+        <v>130</v>
+      </c>
+      <c r="D53">
+        <v>0.93</v>
+      </c>
+      <c r="E53" t="s">
+        <v>149</v>
+      </c>
+      <c r="F53" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>210</v>
+      </c>
+      <c r="B54" t="s">
+        <v>249</v>
+      </c>
+      <c r="C54" t="s">
+        <v>130</v>
+      </c>
+      <c r="D54">
+        <v>0.92</v>
+      </c>
+      <c r="E54" t="s">
+        <v>149</v>
+      </c>
+      <c r="F54" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>211</v>
+      </c>
+      <c r="B55" t="s">
+        <v>249</v>
+      </c>
+      <c r="C55" t="s">
+        <v>130</v>
+      </c>
+      <c r="D55">
+        <v>0.92</v>
+      </c>
+      <c r="E55" t="s">
+        <v>149</v>
+      </c>
+      <c r="F55" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>212</v>
+      </c>
+      <c r="B56" t="s">
+        <v>249</v>
+      </c>
+      <c r="C56" t="s">
+        <v>130</v>
+      </c>
+      <c r="D56">
+        <v>0.6</v>
+      </c>
+      <c r="E56" t="s">
+        <v>149</v>
+      </c>
+      <c r="F56" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>213</v>
+      </c>
+      <c r="B57" t="s">
+        <v>131</v>
+      </c>
+      <c r="C57" t="s">
+        <v>131</v>
+      </c>
+      <c r="D57">
+        <v>0.94</v>
+      </c>
+      <c r="E57" t="s">
+        <v>150</v>
+      </c>
+      <c r="F57" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>214</v>
+      </c>
+      <c r="B58" t="s">
+        <v>131</v>
+      </c>
+      <c r="C58" t="s">
+        <v>131</v>
+      </c>
+      <c r="D58">
+        <v>0.92</v>
+      </c>
+      <c r="E58" t="s">
+        <v>150</v>
+      </c>
+      <c r="F58" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>215</v>
+      </c>
+      <c r="B59" t="s">
+        <v>131</v>
+      </c>
+      <c r="C59" t="s">
+        <v>131</v>
+      </c>
+      <c r="D59">
+        <v>0.71</v>
+      </c>
+      <c r="E59" t="s">
+        <v>150</v>
+      </c>
+      <c r="F59" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>216</v>
+      </c>
+      <c r="B60" t="s">
+        <v>131</v>
+      </c>
+      <c r="C60" t="s">
+        <v>131</v>
+      </c>
+      <c r="D60">
+        <v>0.69</v>
+      </c>
+      <c r="E60" t="s">
+        <v>150</v>
+      </c>
+      <c r="F60" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>217</v>
+      </c>
+      <c r="B61" t="s">
+        <v>131</v>
+      </c>
+      <c r="C61" t="s">
+        <v>131</v>
+      </c>
+      <c r="D61">
+        <v>0.87</v>
+      </c>
+      <c r="E61" t="s">
+        <v>150</v>
+      </c>
+      <c r="F61" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>218</v>
+      </c>
+      <c r="B62" t="s">
+        <v>250</v>
+      </c>
+      <c r="C62" t="s">
+        <v>132</v>
+      </c>
+      <c r="D62">
+        <v>0.98</v>
+      </c>
+      <c r="E62" t="s">
+        <v>151</v>
+      </c>
+      <c r="F62" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>219</v>
+      </c>
+      <c r="B63" t="s">
+        <v>250</v>
+      </c>
+      <c r="C63" t="s">
+        <v>132</v>
+      </c>
+      <c r="D63">
+        <v>0.88</v>
+      </c>
+      <c r="E63" t="s">
+        <v>151</v>
+      </c>
+      <c r="F63" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>81</v>
+      </c>
+      <c r="B64" t="s">
+        <v>250</v>
+      </c>
+      <c r="C64" t="s">
+        <v>132</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64" t="s">
+        <v>151</v>
+      </c>
+      <c r="F64" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>220</v>
+      </c>
+      <c r="B65" t="s">
+        <v>250</v>
+      </c>
+      <c r="C65" t="s">
+        <v>132</v>
+      </c>
+      <c r="D65">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="E65" t="s">
+        <v>151</v>
+      </c>
+      <c r="F65" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>221</v>
+      </c>
+      <c r="B66" t="s">
+        <v>250</v>
+      </c>
+      <c r="C66" t="s">
+        <v>132</v>
+      </c>
+      <c r="D66">
+        <v>0.68</v>
+      </c>
+      <c r="E66" t="s">
+        <v>151</v>
+      </c>
+      <c r="F66" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>222</v>
+      </c>
+      <c r="B67" t="s">
+        <v>133</v>
+      </c>
+      <c r="C67" t="s">
+        <v>133</v>
+      </c>
+      <c r="D67">
+        <v>0.99</v>
+      </c>
+      <c r="E67" t="s">
+        <v>152</v>
+      </c>
+      <c r="F67" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>223</v>
+      </c>
+      <c r="B68" t="s">
+        <v>133</v>
+      </c>
+      <c r="C68" t="s">
+        <v>133</v>
+      </c>
+      <c r="D68">
+        <v>0.93</v>
+      </c>
+      <c r="E68" t="s">
+        <v>152</v>
+      </c>
+      <c r="F68" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>224</v>
+      </c>
+      <c r="B69" t="s">
+        <v>133</v>
+      </c>
+      <c r="C69" t="s">
+        <v>133</v>
+      </c>
+      <c r="D69">
+        <v>0.94</v>
+      </c>
+      <c r="E69" t="s">
+        <v>152</v>
+      </c>
+      <c r="F69" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>88</v>
+      </c>
+      <c r="B70" t="s">
+        <v>133</v>
+      </c>
+      <c r="C70" t="s">
+        <v>133</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+      <c r="E70" t="s">
+        <v>152</v>
+      </c>
+      <c r="F70" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>225</v>
+      </c>
+      <c r="B71" t="s">
+        <v>133</v>
+      </c>
+      <c r="C71" t="s">
+        <v>133</v>
+      </c>
+      <c r="D71">
+        <v>0.92</v>
+      </c>
+      <c r="E71" t="s">
+        <v>152</v>
+      </c>
+      <c r="F71" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>226</v>
+      </c>
+      <c r="B72" t="s">
+        <v>134</v>
+      </c>
+      <c r="C72" t="s">
+        <v>134</v>
+      </c>
+      <c r="D72">
+        <v>0.93</v>
+      </c>
+      <c r="E72" t="s">
+        <v>153</v>
+      </c>
+      <c r="F72" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>227</v>
+      </c>
+      <c r="B73" t="s">
+        <v>134</v>
+      </c>
+      <c r="C73" t="s">
+        <v>134</v>
+      </c>
+      <c r="D73">
+        <v>0.92</v>
+      </c>
+      <c r="E73" t="s">
+        <v>153</v>
+      </c>
+      <c r="F73" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>228</v>
+      </c>
+      <c r="B74" t="s">
+        <v>134</v>
+      </c>
+      <c r="C74" t="s">
+        <v>134</v>
+      </c>
+      <c r="D74">
+        <v>0.92</v>
+      </c>
+      <c r="E74" t="s">
+        <v>153</v>
+      </c>
+      <c r="F74" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>229</v>
+      </c>
+      <c r="B75" t="s">
+        <v>134</v>
+      </c>
+      <c r="C75" t="s">
+        <v>134</v>
+      </c>
+      <c r="D75">
+        <v>0.94</v>
+      </c>
+      <c r="E75" t="s">
+        <v>153</v>
+      </c>
+      <c r="F75" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>95</v>
+      </c>
+      <c r="B76" t="s">
+        <v>134</v>
+      </c>
+      <c r="C76" t="s">
+        <v>134</v>
+      </c>
+      <c r="D76">
+        <v>1</v>
+      </c>
+      <c r="E76" t="s">
+        <v>153</v>
+      </c>
+      <c r="F76" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>230</v>
+      </c>
+      <c r="B77" t="s">
+        <v>135</v>
+      </c>
+      <c r="C77" t="s">
+        <v>135</v>
+      </c>
+      <c r="D77">
+        <v>0.93</v>
+      </c>
+      <c r="E77" t="s">
+        <v>154</v>
+      </c>
+      <c r="F77" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>231</v>
+      </c>
+      <c r="B78" t="s">
+        <v>135</v>
+      </c>
+      <c r="C78" t="s">
+        <v>135</v>
+      </c>
+      <c r="D78">
+        <v>0.94</v>
+      </c>
+      <c r="E78" t="s">
+        <v>154</v>
+      </c>
+      <c r="F78" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>232</v>
+      </c>
+      <c r="B79" t="s">
+        <v>135</v>
+      </c>
+      <c r="C79" t="s">
+        <v>135</v>
+      </c>
+      <c r="D79">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="E79" t="s">
+        <v>154</v>
+      </c>
+      <c r="F79" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>233</v>
+      </c>
+      <c r="B80" t="s">
+        <v>135</v>
+      </c>
+      <c r="C80" t="s">
+        <v>135</v>
+      </c>
+      <c r="D80">
+        <v>0.91</v>
+      </c>
+      <c r="E80" t="s">
+        <v>154</v>
+      </c>
+      <c r="F80" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>234</v>
+      </c>
+      <c r="B81" t="s">
+        <v>135</v>
+      </c>
+      <c r="C81" t="s">
+        <v>135</v>
+      </c>
+      <c r="D81">
+        <v>0.92</v>
+      </c>
+      <c r="E81" t="s">
+        <v>154</v>
+      </c>
+      <c r="F81" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>103</v>
+      </c>
+      <c r="B82" t="s">
+        <v>136</v>
+      </c>
+      <c r="C82" t="s">
+        <v>136</v>
+      </c>
+      <c r="D82">
+        <v>1</v>
+      </c>
+      <c r="E82" t="s">
+        <v>155</v>
+      </c>
+      <c r="F82" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>104</v>
+      </c>
+      <c r="B83" t="s">
+        <v>136</v>
+      </c>
+      <c r="C83" t="s">
+        <v>136</v>
+      </c>
+      <c r="D83">
+        <v>1</v>
+      </c>
+      <c r="E83" t="s">
+        <v>155</v>
+      </c>
+      <c r="F83" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>235</v>
+      </c>
+      <c r="B84" t="s">
+        <v>136</v>
+      </c>
+      <c r="C84" t="s">
+        <v>136</v>
+      </c>
+      <c r="D84">
+        <v>0.91</v>
+      </c>
+      <c r="E84" t="s">
+        <v>155</v>
+      </c>
+      <c r="F84" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>236</v>
+      </c>
+      <c r="B85" t="s">
+        <v>136</v>
+      </c>
+      <c r="C85" t="s">
+        <v>136</v>
+      </c>
+      <c r="D85">
+        <v>0.91</v>
+      </c>
+      <c r="E85" t="s">
+        <v>155</v>
+      </c>
+      <c r="F85" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>237</v>
+      </c>
+      <c r="B86" t="s">
+        <v>136</v>
+      </c>
+      <c r="C86" t="s">
+        <v>136</v>
+      </c>
+      <c r="D86">
+        <v>0.9</v>
+      </c>
+      <c r="E86" t="s">
+        <v>155</v>
+      </c>
+      <c r="F86" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>238</v>
+      </c>
+      <c r="B87" t="s">
+        <v>137</v>
+      </c>
+      <c r="C87" t="s">
+        <v>137</v>
+      </c>
+      <c r="D87">
+        <v>0.93</v>
+      </c>
+      <c r="E87" t="s">
+        <v>156</v>
+      </c>
+      <c r="F87" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>110</v>
+      </c>
+      <c r="B88" t="s">
+        <v>137</v>
+      </c>
+      <c r="C88" t="s">
+        <v>137</v>
+      </c>
+      <c r="D88">
+        <v>1</v>
+      </c>
+      <c r="E88" t="s">
+        <v>156</v>
+      </c>
+      <c r="F88" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>239</v>
+      </c>
+      <c r="B89" t="s">
+        <v>137</v>
+      </c>
+      <c r="C89" t="s">
+        <v>137</v>
+      </c>
+      <c r="D89">
+        <v>0.93</v>
+      </c>
+      <c r="E89" t="s">
+        <v>156</v>
+      </c>
+      <c r="F89" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>240</v>
+      </c>
+      <c r="B90" t="s">
+        <v>137</v>
+      </c>
+      <c r="C90" t="s">
+        <v>137</v>
+      </c>
+      <c r="D90">
+        <v>0.93</v>
+      </c>
+      <c r="E90" t="s">
+        <v>156</v>
+      </c>
+      <c r="F90" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>241</v>
+      </c>
+      <c r="B91" t="s">
+        <v>137</v>
+      </c>
+      <c r="C91" t="s">
+        <v>137</v>
+      </c>
+      <c r="D91">
+        <v>0.93</v>
+      </c>
+      <c r="E91" t="s">
+        <v>156</v>
+      </c>
+      <c r="F91" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>115</v>
+      </c>
+      <c r="B92" t="s">
+        <v>138</v>
+      </c>
+      <c r="C92" t="s">
+        <v>138</v>
+      </c>
+      <c r="D92">
+        <v>1</v>
+      </c>
+      <c r="E92" t="s">
+        <v>157</v>
+      </c>
+      <c r="F92" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>242</v>
+      </c>
+      <c r="B93" t="s">
+        <v>138</v>
+      </c>
+      <c r="C93" t="s">
+        <v>138</v>
+      </c>
+      <c r="D93">
+        <v>0.94</v>
+      </c>
+      <c r="E93" t="s">
+        <v>157</v>
+      </c>
+      <c r="F93" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>243</v>
+      </c>
+      <c r="B94" t="s">
+        <v>138</v>
+      </c>
+      <c r="C94" t="s">
+        <v>138</v>
+      </c>
+      <c r="D94">
+        <v>0.85</v>
+      </c>
+      <c r="E94" t="s">
+        <v>157</v>
+      </c>
+      <c r="F94" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>244</v>
+      </c>
+      <c r="B95" t="s">
+        <v>138</v>
+      </c>
+      <c r="C95" t="s">
+        <v>138</v>
+      </c>
+      <c r="D95">
+        <v>0.92</v>
+      </c>
+      <c r="E95" t="s">
+        <v>157</v>
+      </c>
+      <c r="F95" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>245</v>
+      </c>
+      <c r="B96" t="s">
+        <v>138</v>
+      </c>
+      <c r="C96" t="s">
+        <v>138</v>
+      </c>
+      <c r="D96">
+        <v>0.41</v>
+      </c>
+      <c r="E96" t="s">
+        <v>157</v>
+      </c>
+      <c r="F96" t="s">
+        <v>158</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="38" customWidth="1"/>
-    <col min="2" max="2" width="29.1640625" customWidth="1"/>
-    <col min="3" max="3" width="29" customWidth="1"/>
-    <col min="4" max="4" width="16.83203125" customWidth="1"/>
-    <col min="5" max="5" width="71.83203125" customWidth="1"/>
+    <col min="1" max="1" width="69.1640625" customWidth="1"/>
+    <col min="2" max="2" width="105.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D2" s="3">
-        <v>1</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="67" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D3" s="3">
-        <v>0.94</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="67" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0.93</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D5" s="3">
-        <v>0.88</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D6" s="3">
-        <v>0.92</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="67" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="D7" s="3">
-        <v>0.94</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="D8" s="3">
-        <v>0.86</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="77" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="D9" s="3">
-        <v>0.94</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="94" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="D10" s="3">
-        <v>0.94</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="82" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="D11" s="3">
-        <v>0.94</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="87" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="D12" s="3">
-        <v>0.92</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="93" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="D13" s="3">
-        <v>0.94</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="106" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="D14" s="3">
-        <v>0.92</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="116" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="D15" s="3">
-        <v>0.7</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="106" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="D16" s="3">
-        <v>0.92</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="121" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="D17" s="3">
-        <v>0.92</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="69" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="D18" s="3">
-        <v>0.83</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="106" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="D19" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="126" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="D20" s="3">
-        <v>0.83</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="122" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="D21" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="122" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="D22" s="3">
-        <v>0.93</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="117" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="D23" s="3">
-        <v>0.94</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="118" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="D24" s="3">
-        <v>0.93</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="110" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="D25" s="3">
-        <v>0.91</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="107" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="D26" s="3">
-        <v>0.7</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="144" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D27" s="3">
-        <v>1</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="144" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D28" s="3">
-        <v>0.93</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="144" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D29" s="3">
-        <v>0.94</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="144" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D30" s="3">
-        <v>0.92</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="144" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D31" s="3">
-        <v>0.93</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="92" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="D32" s="3">
-        <v>0.94</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="140" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="D33" s="3">
-        <v>0.94</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="113" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="D34" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="122" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="D35" s="3">
-        <v>0.92</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="125" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="D36" s="3">
-        <v>0.93</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="149" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="D37" s="3">
-        <v>0.94</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="125" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="D38" s="3">
-        <v>0.91</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="120" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="D39" s="3">
-        <v>0.91</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="123" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="D40" s="3">
-        <v>0.92</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="137" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="D41" s="3">
-        <v>0.93</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="144" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="D42" s="3">
-        <v>0.94</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="350" x14ac:dyDescent="0.2">
-      <c r="A43" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="D43" s="3">
-        <v>0.92</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="350" x14ac:dyDescent="0.2">
-      <c r="A44" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="D44" s="3">
-        <v>0.92</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="350" x14ac:dyDescent="0.2">
-      <c r="A45" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="D45" s="3">
-        <v>0.78</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="350" x14ac:dyDescent="0.2">
-      <c r="A46" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="D46" s="3">
-        <v>0.92</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A47" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="D47" s="3">
-        <v>0.93</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A48" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="D48" s="3">
-        <v>0.87</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A49" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="D49" s="3">
-        <v>0.93</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A50" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="D50" s="3">
-        <v>0.92</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A51" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="D51" s="3">
-        <v>0.91</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="F51" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="144" x14ac:dyDescent="0.2">
-      <c r="A52" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="C52" s="3" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>253</v>
+      </c>
+      <c r="B3" t="s">
+        <v>262</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>254</v>
+      </c>
+      <c r="B4" t="s">
+        <v>262</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>255</v>
+      </c>
+      <c r="B5" t="s">
+        <v>262</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>256</v>
+      </c>
+      <c r="B6" t="s">
+        <v>262</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>257</v>
+      </c>
+      <c r="B7" t="s">
+        <v>262</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>258</v>
+      </c>
+      <c r="B8" t="s">
         <v>130</v>
       </c>
-      <c r="D52" s="3">
-        <v>0.93</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="144" x14ac:dyDescent="0.2">
-      <c r="A53" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="D53" s="3">
-        <v>0.94</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="144" x14ac:dyDescent="0.2">
-      <c r="A54" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="D54" s="3">
-        <v>0.92</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="144" x14ac:dyDescent="0.2">
-      <c r="A55" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="D55" s="3">
-        <v>0.92</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="F55" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="144" x14ac:dyDescent="0.2">
-      <c r="A56" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="D56" s="3">
-        <v>0.47</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="F56" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="96" x14ac:dyDescent="0.2">
-      <c r="A57" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="D57" s="3">
-        <v>0.93</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A58" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="D58" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A59" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="D59" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A60" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="D60" s="3">
-        <v>0.76</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A61" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="D61" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="F61" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="96" x14ac:dyDescent="0.2">
-      <c r="A62" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="D62" s="3">
-        <v>0.98</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="96" x14ac:dyDescent="0.2">
-      <c r="A63" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="D63" s="3">
-        <v>0.84</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="F63" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="96" x14ac:dyDescent="0.2">
-      <c r="A64" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="D64" s="3">
-        <v>1</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="F64" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="96" x14ac:dyDescent="0.2">
-      <c r="A65" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="D65" s="3">
-        <v>0.53</v>
-      </c>
-      <c r="E65" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="F65" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="96" x14ac:dyDescent="0.2">
-      <c r="A66" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="D66" s="3">
-        <v>0.64</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A67" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="D67" s="3">
-        <v>0.99</v>
-      </c>
-      <c r="E67" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="F67" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A68" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="D68" s="3">
-        <v>0.93</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="F68" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A69" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="D69" s="3">
-        <v>0.94</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="F69" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A70" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="D70" s="3">
-        <v>1</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="F70" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A71" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="D71" s="3">
-        <v>0.92</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="F71" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A72" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="D72" s="3">
-        <v>0.93</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A73" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="D73" s="3">
-        <v>0.88</v>
-      </c>
-      <c r="E73" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="F73" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A74" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="D74" s="3">
-        <v>0.92</v>
-      </c>
-      <c r="E74" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="F74" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A75" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="D75" s="3">
-        <v>0.93</v>
-      </c>
-      <c r="E75" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="F75" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A76" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="D76" s="3">
-        <v>1</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" ht="350" x14ac:dyDescent="0.2">
-      <c r="A77" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D77" s="3">
-        <v>0.92</v>
-      </c>
-      <c r="E77" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="F77" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" ht="350" x14ac:dyDescent="0.2">
-      <c r="A78" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D78" s="3">
-        <v>0.94</v>
-      </c>
-      <c r="E78" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="F78" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" ht="350" x14ac:dyDescent="0.2">
-      <c r="A79" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D79" s="3">
-        <v>0.64</v>
-      </c>
-      <c r="E79" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="F79" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" ht="350" x14ac:dyDescent="0.2">
-      <c r="A80" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D80" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="E80" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="F80" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" ht="350" x14ac:dyDescent="0.2">
-      <c r="A81" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D81" s="3">
-        <v>0.93</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" ht="335" x14ac:dyDescent="0.2">
-      <c r="A82" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="D82" s="3">
-        <v>1</v>
-      </c>
-      <c r="E82" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="F82" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" ht="335" x14ac:dyDescent="0.2">
-      <c r="A83" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="D83" s="3">
-        <v>1</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" ht="335" x14ac:dyDescent="0.2">
-      <c r="A84" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="D84" s="3">
-        <v>0.91</v>
-      </c>
-      <c r="E84" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="F84" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" ht="335" x14ac:dyDescent="0.2">
-      <c r="A85" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="D85" s="3">
-        <v>0.86</v>
-      </c>
-      <c r="E85" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="F85" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" ht="335" x14ac:dyDescent="0.2">
-      <c r="A86" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="B86" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="D86" s="3">
-        <v>0.76</v>
-      </c>
-      <c r="E86" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="F86" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A87" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="B87" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="D87" s="3">
-        <v>0.94</v>
-      </c>
-      <c r="E87" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="F87" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A88" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="D88" s="3">
-        <v>1</v>
-      </c>
-      <c r="E88" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="F88" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A89" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="D89" s="3">
-        <v>0.93</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A90" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="B90" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="D90" s="3">
-        <v>0.93</v>
-      </c>
-      <c r="E90" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="F90" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A91" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="B91" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="D91" s="3">
-        <v>0.94</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" ht="320" x14ac:dyDescent="0.2">
-      <c r="A92" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B92" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="D92" s="3">
-        <v>1</v>
-      </c>
-      <c r="E92" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="F92" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" ht="320" x14ac:dyDescent="0.2">
-      <c r="A93" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="B93" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="D93" s="3">
-        <v>0.95</v>
-      </c>
-      <c r="E93" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="F93" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" ht="320" x14ac:dyDescent="0.2">
-      <c r="A94" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="B94" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="D94" s="3">
-        <v>0.85</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" ht="320" x14ac:dyDescent="0.2">
-      <c r="A95" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="B95" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C95" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="D95" s="3">
-        <v>0.92</v>
-      </c>
-      <c r="E95" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="F95" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" ht="320" x14ac:dyDescent="0.2">
-      <c r="A96" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="B96" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="D96" s="3">
-        <v>0.47</v>
-      </c>
-      <c r="E96" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="F96" s="3" t="s">
-        <v>158</v>
+      <c r="C8">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>259</v>
+      </c>
+      <c r="B9" t="s">
+        <v>262</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>260</v>
+      </c>
+      <c r="B10" t="s">
+        <v>262</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>261</v>
+      </c>
+      <c r="B11" t="s">
+        <v>262</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
